--- a/model/processed_outputSO1.xlsx
+++ b/model/processed_outputSO1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="116">
   <si>
     <t xml:space="preserve">ExecutionDate</t>
   </si>
@@ -341,37 +341,7 @@
     <t>SO1</t>
   </si>
   <si>
-    <t>NEW BILLING</t>
-  </si>
-  <si>
-    <t>20220228</t>
-  </si>
-  <si>
-    <t>1900.0</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>202202</t>
-  </si>
-  <si>
-    <t>1900.0000</t>
-  </si>
-  <si>
-    <t>BILLING</t>
-  </si>
-  <si>
-    <t>342.8180</t>
-  </si>
-  <si>
-    <t>UNBILLED</t>
-  </si>
-  <si>
-    <t>-23.7965</t>
-  </si>
-  <si>
-    <t>REVENUE</t>
+    <t>202205</t>
   </si>
   <si>
     <t/>
@@ -380,12 +350,15 @@
     <t>INVOICE</t>
   </si>
   <si>
-    <t>20220131</t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
+    <t>FFFF-BBBB</t>
+  </si>
+  <si>
+    <t>SAAS IMPLEMENTATION</t>
+  </si>
+  <si>
     <t>IDHJ-EGNY</t>
   </si>
   <si>
@@ -396,12 +369,6 @@
   </si>
   <si>
     <t>SAAS BASIC SUBSCRIPTION</t>
-  </si>
-  <si>
-    <t>FFFF-BBBB</t>
-  </si>
-  <si>
-    <t>SAAS IMPLEMENTATION</t>
   </si>
   <si>
     <t>FFFF-CCC</t>
@@ -414,7 +381,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="0"/>
@@ -423,7 +390,8 @@
     <numFmt numFmtId="169" formatCode="0.00_);[RED]\(0.00\)"/>
     <numFmt numFmtId="170" formatCode="0.0000_);[RED]\(0.0000\)"/>
     <numFmt numFmtId="171" formatCode="0_);[RED]\(0\)"/>
-    <numFmt numFmtId="172" formatCode="M/dd/yyyy"/>
+    <numFmt numFmtId="172" formatCode="MM/dd/yyyy"/>
+    <numFmt numFmtId="173" formatCode="#,##0.##"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -601,7 +569,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="141">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -890,25 +858,73 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
@@ -1210,14 +1226,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n" s="92">
-        <v>44620.0</v>
-      </c>
-      <c r="B2" t="n" s="91">
-        <v>44592.0</v>
+      <c r="A2" t="n" s="140">
+        <v>44712.0</v>
+      </c>
+      <c r="B2" t="n" s="139">
+        <v>44681.0</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1274,23 +1290,23 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" t="s" s="1">
-        <v>104</v>
-      </c>
-      <c r="B2" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C2" t="s" s="1">
-        <v>105</v>
-      </c>
-      <c r="D2" t="n" s="72">
-        <v>44620.0</v>
-      </c>
-      <c r="E2" t="s" s="1">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="73" t="n">
+        <v>44712.0</v>
+      </c>
+      <c r="D2" s="72" t="n">
+        <v>44712.0</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F2" t="s" s="1">
-        <v>106</v>
+      <c r="F2" t="n" s="74">
+        <v>600.0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1400,44 +1416,44 @@
       <c r="B2" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="s" s="1">
-        <v>117</v>
-      </c>
-      <c r="D2" t="n" s="73">
+      <c r="C2" s="102" t="n">
+        <v>44681.0</v>
+      </c>
+      <c r="D2" s="100" t="n">
         <v>44576.0</v>
       </c>
       <c r="E2" t="s" s="1">
         <v>103</v>
       </c>
-      <c r="F2" t="n" s="74">
+      <c r="F2" s="101" t="n">
         <v>44576.0</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" t="n">
+        <v>106</v>
+      </c>
+      <c r="H2" t="n" s="99">
         <v>0.0</v>
       </c>
-      <c r="I2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L2" t="s">
-        <v>115</v>
-      </c>
-      <c r="M2" t="s">
-        <v>115</v>
-      </c>
-      <c r="N2" t="s">
-        <v>118</v>
+      <c r="I2" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="O2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1447,44 +1463,44 @@
       <c r="B3" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="1">
-        <v>117</v>
-      </c>
-      <c r="D3" t="n" s="76">
+      <c r="C3" s="118" t="n">
+        <v>44681.0</v>
+      </c>
+      <c r="D3" s="115" t="n">
         <v>44576.0</v>
       </c>
       <c r="E3" t="s" s="1">
         <v>103</v>
       </c>
-      <c r="F3" t="n" s="77">
+      <c r="F3" s="116" t="n">
         <v>44576.0</v>
       </c>
       <c r="G3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H3" t="n">
+        <v>110</v>
+      </c>
+      <c r="H3" t="n" s="113">
         <v>1.0</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="114" t="n">
         <v>-200.0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="117" t="n">
         <v>1.0</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="120" t="n">
         <v>-200.0</v>
       </c>
-      <c r="L3" t="n" s="78">
+      <c r="L3" s="119" t="n">
         <v>44576.0</v>
       </c>
-      <c r="M3" t="n" s="75">
+      <c r="M3" s="112" t="n">
         <v>44576.0</v>
       </c>
-      <c r="N3" t="s">
-        <v>118</v>
-      </c>
-      <c r="O3" t="s">
-        <v>120</v>
+      <c r="N3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1494,44 +1510,44 @@
       <c r="B4" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="s" s="1">
-        <v>117</v>
-      </c>
-      <c r="D4" t="n" s="80">
+      <c r="C4" s="127" t="n">
+        <v>44681.0</v>
+      </c>
+      <c r="D4" s="124" t="n">
         <v>44576.0</v>
       </c>
       <c r="E4" t="s" s="1">
         <v>103</v>
       </c>
-      <c r="F4" t="n" s="81">
+      <c r="F4" s="125" t="n">
         <v>44576.0</v>
       </c>
       <c r="G4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H4" t="n">
+        <v>112</v>
+      </c>
+      <c r="H4" t="n" s="122">
         <v>2.0</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="123" t="n">
         <v>100.0</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="126" t="n">
         <v>12.0</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="129" t="n">
         <v>1200.0</v>
       </c>
-      <c r="L4" t="n" s="82">
+      <c r="L4" s="128" t="n">
         <v>44576.0</v>
       </c>
-      <c r="M4" t="n" s="79">
+      <c r="M4" s="121" t="n">
         <v>44941.0</v>
       </c>
-      <c r="N4" t="s">
-        <v>118</v>
-      </c>
-      <c r="O4" t="s">
-        <v>122</v>
+      <c r="N4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1541,44 +1557,44 @@
       <c r="B5" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="C5" t="s" s="1">
-        <v>117</v>
-      </c>
-      <c r="D5" t="n" s="84">
+      <c r="C5" s="109" t="n">
+        <v>44681.0</v>
+      </c>
+      <c r="D5" s="106" t="n">
         <v>44576.0</v>
       </c>
       <c r="E5" t="s" s="1">
         <v>103</v>
       </c>
-      <c r="F5" t="n" s="85">
+      <c r="F5" s="107" t="n">
         <v>44576.0</v>
       </c>
       <c r="G5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H5" t="n">
+        <v>108</v>
+      </c>
+      <c r="H5" t="n" s="104">
         <v>3.0</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="105" t="n">
         <v>300.0</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="108" t="n">
         <v>1.0</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="111" t="n">
         <v>300.0</v>
       </c>
-      <c r="L5" t="n" s="86">
+      <c r="L5" s="110" t="n">
         <v>44576.0</v>
       </c>
-      <c r="M5" t="n" s="83">
+      <c r="M5" s="103" t="n">
         <v>44576.0</v>
       </c>
-      <c r="N5" t="s">
-        <v>118</v>
-      </c>
-      <c r="O5" t="s">
-        <v>124</v>
+      <c r="N5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1588,44 +1604,44 @@
       <c r="B6" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="C6" t="s" s="1">
-        <v>117</v>
-      </c>
-      <c r="D6" t="n" s="88">
+      <c r="C6" s="136" t="n">
+        <v>44681.0</v>
+      </c>
+      <c r="D6" s="133" t="n">
         <v>44576.0</v>
       </c>
       <c r="E6" t="s" s="1">
         <v>103</v>
       </c>
-      <c r="F6" t="n" s="89">
+      <c r="F6" s="134" t="n">
         <v>44576.0</v>
       </c>
       <c r="G6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H6" t="n">
+        <v>114</v>
+      </c>
+      <c r="H6" t="n" s="131">
         <v>5.0</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="132" t="n">
         <v>50.0</v>
       </c>
-      <c r="J6" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>600.0</v>
-      </c>
-      <c r="L6" t="n" s="90">
+      <c r="J6" s="135" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="K6" s="138" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="L6" s="137" t="n">
         <v>44576.0</v>
       </c>
-      <c r="M6" t="n" s="87">
+      <c r="M6" s="130" t="n">
         <v>44941.0</v>
       </c>
-      <c r="N6" t="s">
-        <v>118</v>
-      </c>
-      <c r="O6" t="s">
-        <v>126</v>
+      <c r="N6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1699,49 +1715,55 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" t="s" s="1">
-        <v>110</v>
+      <c r="A2" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="s" s="1">
+      <c r="C2" t="n" s="81">
+        <v>44712.0</v>
+      </c>
+      <c r="D2" t="s">
         <v>103</v>
       </c>
-      <c r="E2" t="s" s="1">
-        <v>108</v>
-      </c>
-      <c r="F2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" t="s">
-        <v>109</v>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" t="n" s="79">
+        <v>1900.0</v>
+      </c>
+      <c r="G2" t="n" s="82">
+        <v>600.0</v>
+      </c>
+      <c r="H2" t="n" s="80">
+        <v>2500.0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" t="s" s="1">
-        <v>112</v>
+      <c r="A3" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="s" s="1">
+      <c r="C3" t="n" s="85">
+        <v>44712.0</v>
+      </c>
+      <c r="D3" t="s">
         <v>103</v>
       </c>
-      <c r="E3" t="s" s="1">
-        <v>108</v>
-      </c>
-      <c r="F3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H3" t="s">
-        <v>111</v>
+      <c r="E3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" t="n" s="83">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n" s="86">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n" s="84">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1751,7 +1773,24 @@
       <c r="B4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="12"/>
+      <c r="C4" t="n" s="77">
+        <v>44712.0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" t="n" s="75">
+        <v>1900.0</v>
+      </c>
+      <c r="G4" t="n" s="78">
+        <v>600.0</v>
+      </c>
+      <c r="H4" s="76" t="n">
+        <v>2500.0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -1768,6 +1807,24 @@
       <c r="B6" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="C6" t="n" s="93">
+        <v>44712.0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" t="n" s="91">
+        <v>-319.6347</v>
+      </c>
+      <c r="G6" t="n" s="94">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n" s="92">
+        <v>-319.6347</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -1776,28 +1833,49 @@
       <c r="B7" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="C7" t="n" s="89">
+        <v>44712.0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" t="n" s="87">
+        <v>-277.7778</v>
+      </c>
+      <c r="G7" t="n" s="90">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="n" s="88">
+        <v>-277.7778</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" t="s" s="1">
-        <v>114</v>
+      <c r="A8" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="s" s="1">
+      <c r="C8" t="n" s="97">
+        <v>44712.0</v>
+      </c>
+      <c r="D8" t="s">
         <v>103</v>
       </c>
-      <c r="E8" t="s" s="1">
-        <v>108</v>
-      </c>
-      <c r="F8" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" t="s">
-        <v>113</v>
+      <c r="E8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" t="n" s="95">
+        <v>-319.6347</v>
+      </c>
+      <c r="G8" t="n" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n" s="96">
+        <v>-319.6347</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2029,11 +2107,11 @@
       </c>
       <c r="E14" s="17" t="n">
         <f aca="false">IFERROR(D14/$D$18,"")</f>
-        <v>0.5714285714285714</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="F14" s="17" t="n">
         <f aca="false">IFERROR(E14*$C$18,"")</f>
-        <v>1085.7142857142849</v>
+        <v>1111.11111111111</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2055,11 +2133,11 @@
       </c>
       <c r="E15" s="17" t="n">
         <f aca="false">IFERROR(D15/$D$18,"")</f>
-        <v>0.14285714285714285</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F15" s="17" t="n">
         <f aca="false">IFERROR(E15*$C$18,"")</f>
-        <v>271.4285714285717</v>
+        <v>277.7777777777775</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2073,19 +2151,19 @@
       </c>
       <c r="C16" s="17" t="n">
         <f aca="false">IF(i_InstrumentAttribute!I6="","",i_InstrumentAttribute!J6*i_InstrumentAttribute!I6)</f>
-        <v>600.0</v>
+        <v>1200.0</v>
       </c>
       <c r="D16" s="17" t="n">
         <f aca="false">IFERROR(IF(VLOOKUP(B16,$B$3:$C$7,2,FALSE())="USE SALES PRICE",C16,VLOOKUP(B16,$B$3:$E$7,4,FALSE())),"")</f>
-        <v>600.0</v>
+        <v>1200.0</v>
       </c>
       <c r="E16" s="17" t="n">
         <f aca="false">IFERROR(D16/$D$18,"")</f>
-        <v>0.2857142857142857</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="F16" s="17" t="n">
         <f aca="false">IFERROR(E16*$C$18,"")</f>
-        <v>542.8571428571433</v>
+        <v>1111.11111111111</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2121,19 +2199,19 @@
       <c r="B18" s="18"/>
       <c r="C18" s="19" t="n">
         <f aca="false">SUM(C13:C17)</f>
-        <v>1900.0</v>
+        <v>2500.0</v>
       </c>
       <c r="D18" s="19" t="n">
         <f aca="false">SUM(D13:D17)</f>
-        <v>2100.0</v>
+        <v>2700.0</v>
       </c>
       <c r="E18" s="19" t="n">
         <f aca="false">SUM(E13:E17)</f>
-        <v>0.9999999999999999</v>
+        <v>1.0</v>
       </c>
       <c r="F18" s="19" t="n">
         <f aca="false">SUM(F13:F17)</f>
-        <v>1899.9999999999998</v>
+        <v>2499.9999999999973</v>
       </c>
       <c r="G18" s="20" t="b">
         <f aca="false">F18=C18</f>
@@ -2315,7 +2393,7 @@
       </c>
       <c r="L3" s="29" t="n">
         <f aca="false">i_ExecutionDate!A2</f>
-        <v>44620.0</v>
+        <v>44712.0</v>
       </c>
       <c r="AA3" s="22"/>
       <c r="BB3" s="22"/>
@@ -2333,7 +2411,7 @@
       </c>
       <c r="C4" s="26" t="n">
         <f aca="false">IF($A4="","",ProductCatalog_Allocation_Calc!F14)</f>
-        <v>1085.7142857142849</v>
+        <v>1111.11111111111</v>
       </c>
       <c r="D4" s="27" t="n">
         <f aca="false">IF($A4="","",i_InstrumentAttribute!L4)</f>
@@ -2349,7 +2427,7 @@
       </c>
       <c r="G4" s="17" t="n">
         <f aca="false">IFERROR(IF($A4="","",C4/F4),C4)</f>
-        <v>2.9745596868884383</v>
+        <v>3.0441400304413975</v>
       </c>
       <c r="H4" s="11" t="str">
         <f aca="false">IF($A4="","",i_InstrumentAttribute!E4)</f>
@@ -2384,7 +2462,7 @@
       </c>
       <c r="C5" s="26" t="n">
         <f aca="false">IF($A5="","",ProductCatalog_Allocation_Calc!F15)</f>
-        <v>271.4285714285717</v>
+        <v>277.7777777777775</v>
       </c>
       <c r="D5" s="27" t="n">
         <f aca="false">IF($A5="","",i_InstrumentAttribute!L5)</f>
@@ -2400,7 +2478,7 @@
       </c>
       <c r="G5" s="17" t="n">
         <f aca="false">IFERROR(IF($A5="","",C5/F5),C5)</f>
-        <v>271.4285714285717</v>
+        <v>277.7777777777775</v>
       </c>
       <c r="H5" s="11" t="str">
         <f aca="false">IF($A5="","",i_InstrumentAttribute!E5)</f>
@@ -2435,7 +2513,7 @@
       </c>
       <c r="C6" s="26" t="n">
         <f aca="false">IF($A6="","",ProductCatalog_Allocation_Calc!F16)</f>
-        <v>542.8571428571433</v>
+        <v>1111.11111111111</v>
       </c>
       <c r="D6" s="27" t="n">
         <f aca="false">IF($A6="","",i_InstrumentAttribute!L6)</f>
@@ -2451,7 +2529,7 @@
       </c>
       <c r="G6" s="17" t="n">
         <f aca="false">IFERROR(IF($A6="","",C6/F6),C6)</f>
-        <v>1.4872798434442274</v>
+        <v>3.0441400304413975</v>
       </c>
       <c r="H6" s="11" t="str">
         <f aca="false">IF($A6="","",i_InstrumentAttribute!E6)</f>
@@ -2989,7 +3067,7 @@
       </c>
       <c r="AC11" s="27" t="n">
         <f aca="false">IF($L$3&gt;=B11,$L$3,B11)</f>
-        <v>44620.0</v>
+        <v>44712.0</v>
       </c>
       <c r="AD11" s="27" t="str">
         <f aca="false">IF($L$3&gt;=C11,$L$3,C11)</f>
@@ -3411,19 +3489,19 @@
       </c>
       <c r="AC12" s="27" t="n">
         <f aca="false">IF($L$3&gt;=B12,$L$3,B12)</f>
-        <v>44620.0</v>
+        <v>44712.0</v>
       </c>
       <c r="AD12" s="27" t="n">
         <f aca="false">IF($L$3&gt;=C12,$L$3,C12)</f>
-        <v>44620.0</v>
+        <v>44712.0</v>
       </c>
       <c r="AE12" s="27" t="n">
         <f aca="false">IF($L$3&gt;=D12,$L$3,D12)</f>
-        <v>44651.0</v>
+        <v>44712.0</v>
       </c>
       <c r="AF12" s="27" t="n">
         <f aca="false">IF($L$3&gt;=E12,$L$3,E12)</f>
-        <v>44681.0</v>
+        <v>44712.0</v>
       </c>
       <c r="AG12" s="27" t="n">
         <f aca="false">IF($L$3&gt;=F12,$L$3,F12)</f>
@@ -3621,55 +3699,55 @@
       </c>
       <c r="CE12" s="35" t="n">
         <f aca="false">IFERROR(IF(B12="","",IF(AND(CE$10=0,I4="POINT_IN_TIME"),$G4,$G4*BD12)),"")</f>
-        <v>47.59295499021504</v>
+        <v>48.7062404870624</v>
       </c>
       <c r="CF12" s="35" t="n">
         <f aca="false">IFERROR(IF(C12="","",$G4*BE12),"")</f>
-        <v>83.28767123287632</v>
+        <v>85.2359208523592</v>
       </c>
       <c r="CG12" s="35" t="n">
         <f aca="false">IFERROR(IF(D12="","",$G4*BF12),"")</f>
-        <v>92.21135029354164</v>
+        <v>94.3683409436834</v>
       </c>
       <c r="CH12" s="35" t="n">
         <f aca="false">IFERROR(IF(E12="","",$G4*BG12),"")</f>
-        <v>89.2367906066532</v>
+        <v>91.324200913242</v>
       </c>
       <c r="CI12" s="35" t="n">
         <f aca="false">IFERROR(IF(F12="","",$G4*BH12),"")</f>
-        <v>92.21135029354164</v>
+        <v>94.3683409436834</v>
       </c>
       <c r="CJ12" s="35" t="n">
         <f aca="false">IFERROR(IF(G12="","",$G4*BI12),"")</f>
-        <v>89.2367906066532</v>
+        <v>91.324200913242</v>
       </c>
       <c r="CK12" s="35" t="n">
         <f aca="false">IFERROR(IF(H12="","",$G4*BJ12),"")</f>
-        <v>92.21135029354164</v>
+        <v>94.3683409436834</v>
       </c>
       <c r="CL12" s="35" t="n">
         <f aca="false">IFERROR(IF(I12="","",$G4*BK12),"")</f>
-        <v>92.21135029354164</v>
+        <v>94.3683409436834</v>
       </c>
       <c r="CM12" s="35" t="n">
         <f aca="false">IFERROR(IF(J12="","",$G4*BL12),"")</f>
-        <v>89.2367906066532</v>
+        <v>91.324200913242</v>
       </c>
       <c r="CN12" s="35" t="n">
         <f aca="false">IFERROR(IF(K12="","",$G4*BM12),"")</f>
-        <v>92.21135029354164</v>
+        <v>94.3683409436834</v>
       </c>
       <c r="CO12" s="35" t="n">
         <f aca="false">IFERROR(IF(L12="","",$G4*BN12),"")</f>
-        <v>89.2367906066532</v>
+        <v>91.324200913242</v>
       </c>
       <c r="CP12" s="35" t="n">
         <f aca="false">IFERROR(IF(M12="","",$G4*BO12),"")</f>
-        <v>92.21135029354164</v>
+        <v>94.3683409436834</v>
       </c>
       <c r="CQ12" s="35" t="n">
         <f aca="false">IFERROR(IF(N12="","",$G4*BP12),"")</f>
-        <v>44.6183953033266</v>
+        <v>45.662100456621</v>
       </c>
       <c r="CR12" s="35" t="str">
         <f aca="false">IFERROR(IF(O12="","",$G4*BQ12),"")</f>
@@ -3833,7 +3911,7 @@
       </c>
       <c r="AC13" s="27" t="n">
         <f aca="false">IF($L$3&gt;=B13,$L$3,B13)</f>
-        <v>44620.0</v>
+        <v>44712.0</v>
       </c>
       <c r="AD13" s="27" t="str">
         <f aca="false">IF($L$3&gt;=C13,$L$3,C13)</f>
@@ -4043,7 +4121,7 @@
       </c>
       <c r="CE13" s="35" t="n">
         <f aca="false">IFERROR(IF(B13="","",IF(AND(CE$10=0,I5="POINT_IN_TIME"),$G5,$G5*BD13)),"")</f>
-        <v>271.4285714285717</v>
+        <v>277.7777777777775</v>
       </c>
       <c r="CF13" s="35" t="str">
         <f aca="false">IFERROR(IF(C13="","",$G5*BE13),"")</f>
@@ -4255,19 +4333,19 @@
       </c>
       <c r="AC14" s="27" t="n">
         <f aca="false">IF($L$3&gt;=B14,$L$3,B14)</f>
-        <v>44620.0</v>
+        <v>44712.0</v>
       </c>
       <c r="AD14" s="27" t="n">
         <f aca="false">IF($L$3&gt;=C14,$L$3,C14)</f>
-        <v>44620.0</v>
+        <v>44712.0</v>
       </c>
       <c r="AE14" s="27" t="n">
         <f aca="false">IF($L$3&gt;=D14,$L$3,D14)</f>
-        <v>44651.0</v>
+        <v>44712.0</v>
       </c>
       <c r="AF14" s="27" t="n">
         <f aca="false">IF($L$3&gt;=E14,$L$3,E14)</f>
-        <v>44681.0</v>
+        <v>44712.0</v>
       </c>
       <c r="AG14" s="27" t="n">
         <f aca="false">IF($L$3&gt;=F14,$L$3,F14)</f>
@@ -4465,55 +4543,55 @@
       </c>
       <c r="CE14" s="35" t="n">
         <f aca="false">IFERROR(IF(B14="","",$G6*BD14),"")</f>
-        <v>23.79647749510768</v>
+        <v>48.7062404870624</v>
       </c>
       <c r="CF14" s="35" t="n">
         <f aca="false">IFERROR(IF(C14="","",$G6*BE14),"")</f>
-        <v>41.64383561643844</v>
+        <v>85.2359208523592</v>
       </c>
       <c r="CG14" s="35" t="n">
         <f aca="false">IFERROR(IF(D14="","",$G6*BF14),"")</f>
-        <v>46.10567514677113</v>
+        <v>94.3683409436834</v>
       </c>
       <c r="CH14" s="35" t="n">
         <f aca="false">IFERROR(IF(E14="","",$G6*BG14),"")</f>
-        <v>44.6183953033269</v>
+        <v>91.324200913242</v>
       </c>
       <c r="CI14" s="35" t="n">
         <f aca="false">IFERROR(IF(F14="","",$G6*BH14),"")</f>
-        <v>46.10567514677113</v>
+        <v>94.3683409436834</v>
       </c>
       <c r="CJ14" s="35" t="n">
         <f aca="false">IFERROR(IF(G14="","",$G6*BI14),"")</f>
-        <v>44.6183953033269</v>
+        <v>91.324200913242</v>
       </c>
       <c r="CK14" s="35" t="n">
         <f aca="false">IFERROR(IF(H14="","",$G6*BJ14),"")</f>
-        <v>46.10567514677113</v>
+        <v>94.3683409436834</v>
       </c>
       <c r="CL14" s="35" t="n">
         <f aca="false">IFERROR(IF(I14="","",$G6*BK14),"")</f>
-        <v>46.10567514677113</v>
+        <v>94.3683409436834</v>
       </c>
       <c r="CM14" s="35" t="n">
         <f aca="false">IFERROR(IF(J14="","",$G6*BL14),"")</f>
-        <v>44.6183953033269</v>
+        <v>91.324200913242</v>
       </c>
       <c r="CN14" s="35" t="n">
         <f aca="false">IFERROR(IF(K14="","",$G6*BM14),"")</f>
-        <v>46.10567514677113</v>
+        <v>94.3683409436834</v>
       </c>
       <c r="CO14" s="35" t="n">
         <f aca="false">IFERROR(IF(L14="","",$G6*BN14),"")</f>
-        <v>44.6183953033269</v>
+        <v>91.324200913242</v>
       </c>
       <c r="CP14" s="35" t="n">
         <f aca="false">IFERROR(IF(M14="","",$G6*BO14),"")</f>
-        <v>46.10567514677113</v>
+        <v>94.3683409436834</v>
       </c>
       <c r="CQ14" s="35" t="n">
         <f aca="false">IFERROR(IF(N14="","",$G6*BP14),"")</f>
-        <v>22.30919765166345</v>
+        <v>45.662100456621</v>
       </c>
       <c r="CR14" s="35" t="str">
         <f aca="false">IFERROR(IF(O14="","",$G6*BQ14),"")</f>
@@ -5025,22 +5103,22 @@
       </c>
       <c r="B19" s="27" t="n">
         <f aca="false">IF(A19="","",$L$3)</f>
-        <v>44620.0</v>
-      </c>
-      <c r="C19" s="35" t="str">
+        <v>44712.0</v>
+      </c>
+      <c r="C19" s="35" t="n">
         <f aca="false">IF(A19="","",i_Metric!$H2)</f>
-        <v>1900.0000</v>
+        <v>2500.0</v>
       </c>
       <c r="D19" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="E19" s="35" t="str">
+      <c r="E19" s="35" t="n">
         <f aca="false">IF(A19="","",i_Metric!$H3)</f>
-        <v>342.8180</v>
+        <v>0.0</v>
       </c>
       <c r="F19" s="35" t="n">
         <f aca="false">IF(A19="","",i_Metric!$H4)</f>
-        <v>0.0</v>
+        <v>2500.0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5050,7 +5128,7 @@
       </c>
       <c r="B20" s="27" t="n">
         <f aca="false">IF(A20="","",$L$3)</f>
-        <v>44620.0</v>
+        <v>44712.0</v>
       </c>
       <c r="C20" s="35" t="n">
         <f aca="false">IF(A20="","",0)</f>
@@ -5076,7 +5154,7 @@
       </c>
       <c r="B21" s="27" t="n">
         <f aca="false">IF(A21="","",$L$3)</f>
-        <v>44620.0</v>
+        <v>44712.0</v>
       </c>
       <c r="C21" s="35" t="n">
         <f aca="false">IF(A21="","",0)</f>
@@ -5084,7 +5162,7 @@
       </c>
       <c r="D21" s="35" t="n">
         <f aca="false">IF(A21="","",i_Metric!$H6)</f>
-        <v>0.0</v>
+        <v>-319.6347</v>
       </c>
       <c r="E21" s="35" t="n">
         <f aca="false">IF(A21="","",0)</f>
@@ -5102,7 +5180,7 @@
       </c>
       <c r="B22" s="27" t="n">
         <f aca="false">IF(A22="","",$L$3)</f>
-        <v>44620.0</v>
+        <v>44712.0</v>
       </c>
       <c r="C22" s="35" t="n">
         <f aca="false">IF(A22="","",0)</f>
@@ -5110,7 +5188,7 @@
       </c>
       <c r="D22" s="35" t="n">
         <f aca="false">IF(A22="","",i_Metric!$H7)</f>
-        <v>0.0</v>
+        <v>-277.7778</v>
       </c>
       <c r="E22" s="35" t="n">
         <f aca="false">IF(A22="","",0)</f>
@@ -5128,15 +5206,15 @@
       </c>
       <c r="B23" s="27" t="n">
         <f aca="false">IF(A23="","",$L$3)</f>
-        <v>44620.0</v>
+        <v>44712.0</v>
       </c>
       <c r="C23" s="35" t="n">
         <f aca="false">IF(A23="","",0)</f>
         <v>0.0</v>
       </c>
-      <c r="D23" s="35" t="str">
+      <c r="D23" s="35" t="n">
         <f aca="false">IF(A23="","",i_Metric!$H8)</f>
-        <v>-23.7965</v>
+        <v>-319.6347</v>
       </c>
       <c r="E23" s="35" t="n">
         <f aca="false">IF(A23="","",0)</f>
@@ -5180,11 +5258,11 @@
       <c r="B25" s="27"/>
       <c r="C25" s="35" t="n">
         <f aca="false">SUM(C19:C24)</f>
-        <v>0.0</v>
+        <v>2500.0</v>
       </c>
       <c r="D25" s="35" t="n">
         <f aca="false">SUM(D19:D24)</f>
-        <v>0.0</v>
+        <v>-917.0472</v>
       </c>
       <c r="E25" s="35" t="n">
         <f aca="false">SUM(E19:E24)</f>
@@ -5192,7 +5270,7 @@
       </c>
       <c r="F25" s="35" t="n">
         <f aca="false">SUM(F19:F24)</f>
-        <v>0.0</v>
+        <v>2500.0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5233,11 +5311,11 @@
       </c>
       <c r="B29" s="27" t="n">
         <f aca="false">IF(A29="","",$L$3)</f>
-        <v>44620.0</v>
+        <v>44712.0</v>
       </c>
       <c r="C29" s="35" t="n">
         <f aca="false">IF(B29="","",C25+C37)</f>
-        <v>1900.0</v>
+        <v>3100.0</v>
       </c>
       <c r="D29" s="35" t="n">
         <f aca="false">IF(B29="","",0)</f>
@@ -5249,7 +5327,7 @@
       </c>
       <c r="F29" s="37" t="n">
         <f aca="false">IF(B29="","",SUM(C29:E34))</f>
-        <v>1432.2504892367908</v>
+        <v>1994.2161339421618</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5259,7 +5337,7 @@
       </c>
       <c r="B30" s="27" t="n">
         <f aca="false">IF(A30="","",$L$3)</f>
-        <v>44620.0</v>
+        <v>44712.0</v>
       </c>
       <c r="C30" s="35" t="n">
         <f aca="false">IF(A30="","",0)</f>
@@ -5285,7 +5363,7 @@
       </c>
       <c r="B31" s="27" t="n">
         <f aca="false">IF(A31="","",$L$3)</f>
-        <v>44620.0</v>
+        <v>44712.0</v>
       </c>
       <c r="C31" s="35" t="n">
         <f aca="false">IF(A31="","",0)</f>
@@ -5293,7 +5371,7 @@
       </c>
       <c r="D31" s="35" t="n">
         <f aca="false">IF(B31="","",-SUMIF($AC12:$BA12,$L$3,$CE12:$DC12))</f>
-        <v>-130.88062622309135</v>
+        <v>-414.0030441400304</v>
       </c>
       <c r="E31" s="35" t="n">
         <f aca="false">IF(A31="","",0)</f>
@@ -5311,7 +5389,7 @@
       </c>
       <c r="B32" s="27" t="n">
         <f aca="false">IF(A32="","",$L$3)</f>
-        <v>44620.0</v>
+        <v>44712.0</v>
       </c>
       <c r="C32" s="35" t="n">
         <f aca="false">IF(A32="","",0)</f>
@@ -5319,7 +5397,7 @@
       </c>
       <c r="D32" s="35" t="n">
         <f aca="false">IF(B32="","",-SUMIF($AC13:$BA13,$L$3,$CE13:$DC13))</f>
-        <v>-271.4285714285717</v>
+        <v>-277.7777777777775</v>
       </c>
       <c r="E32" s="35" t="n">
         <f aca="false">IF(A32="","",0)</f>
@@ -5337,7 +5415,7 @@
       </c>
       <c r="B33" s="27" t="n">
         <f aca="false">IF(A33="","",$L$3)</f>
-        <v>44620.0</v>
+        <v>44712.0</v>
       </c>
       <c r="C33" s="35" t="n">
         <f aca="false">IF(A33="","",0)</f>
@@ -5345,7 +5423,7 @@
       </c>
       <c r="D33" s="35" t="n">
         <f aca="false">IF(B33="","",-SUMIF($AC14:$BA14,$L$3,$CE14:$DC14))</f>
-        <v>-65.44031311154612</v>
+        <v>-414.0030441400304</v>
       </c>
       <c r="E33" s="35" t="n">
         <f aca="false">IF(A33="","",0)</f>
@@ -5410,11 +5488,11 @@
       </c>
       <c r="B37" s="27" t="n">
         <f aca="false">IF(A37="","",$L$3)</f>
-        <v>44620.0</v>
+        <v>44712.0</v>
       </c>
       <c r="C37" s="35" t="n">
         <f aca="false">i_Transaction!F2+i_Transaction!F3</f>
-        <v>1900.0</v>
+        <v>600.0</v>
       </c>
       <c r="D37" s="35" t="n">
         <f aca="false">IF(B37="","",0)</f>
@@ -5426,7 +5504,7 @@
       </c>
       <c r="F37" s="37" t="n">
         <f aca="false">IF(B37="","",SUM(C37:E42))</f>
-        <v>1456.046989236791</v>
+        <v>2911.263333942162</v>
       </c>
       <c r="H37" s="39"/>
       <c r="I37" s="39"/>
@@ -5438,7 +5516,7 @@
       </c>
       <c r="B38" s="27" t="n">
         <f aca="false">IF(A38="","",$L$3)</f>
-        <v>44620.0</v>
+        <v>44712.0</v>
       </c>
       <c r="C38" s="35" t="n">
         <f aca="false">IF(A38="","",0)</f>
@@ -5464,7 +5542,7 @@
       </c>
       <c r="B39" s="27" t="n">
         <f aca="false">IF(A39="","",$L$3)</f>
-        <v>44620.0</v>
+        <v>44712.0</v>
       </c>
       <c r="C39" s="35" t="n">
         <f aca="false">IF(A39="","",0)</f>
@@ -5472,7 +5550,7 @@
       </c>
       <c r="D39" s="35" t="n">
         <f aca="false">IF(B39="","",D31-D21)</f>
-        <v>-130.88062622309135</v>
+        <v>-94.36834414003039</v>
       </c>
       <c r="E39" s="35" t="n">
         <f aca="false">IF(A39="","",0)</f>
@@ -5490,7 +5568,7 @@
       </c>
       <c r="B40" s="27" t="n">
         <f aca="false">IF(A40="","",$L$3)</f>
-        <v>44620.0</v>
+        <v>44712.0</v>
       </c>
       <c r="C40" s="35" t="n">
         <f aca="false">IF(A40="","",0)</f>
@@ -5498,7 +5576,7 @@
       </c>
       <c r="D40" s="35" t="n">
         <f aca="false">IF(B40="","",D32-D22)</f>
-        <v>-271.4285714285717</v>
+        <v>2.2222222526124824E-5</v>
       </c>
       <c r="E40" s="35" t="n">
         <f aca="false">IF(A40="","",0)</f>
@@ -5516,15 +5594,15 @@
       </c>
       <c r="B41" s="27" t="n">
         <f aca="false">IF(A41="","",$L$3)</f>
-        <v>44620.0</v>
+        <v>44712.0</v>
       </c>
       <c r="C41" s="35" t="n">
         <f aca="false">IF(B41="","",C33+$C$25)</f>
-        <v>0.0</v>
+        <v>2500.0</v>
       </c>
       <c r="D41" s="35" t="n">
         <f aca="false">IF(B41="","",D33-D23)</f>
-        <v>-41.643813111546116</v>
+        <v>-94.36834414003039</v>
       </c>
       <c r="E41" s="35" t="n">
         <f aca="false">IF(A41="","",0)</f>
@@ -5636,11 +5714,11 @@
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="27" t="n">
         <f aca="false">IF(D39=0,"",B39)</f>
-        <v>44620.0</v>
+        <v>44712.0</v>
       </c>
       <c r="B47" s="27" t="n">
         <f aca="false">IF(A47="","",A47)</f>
-        <v>44620.0</v>
+        <v>44712.0</v>
       </c>
       <c r="C47" s="11" t="str">
         <f aca="false">IF(A47="","",$H$3)</f>
@@ -5652,7 +5730,7 @@
       </c>
       <c r="E47" s="35" t="n">
         <f aca="false">IF(D47="Revenue",D39,"")</f>
-        <v>-130.88062622309135</v>
+        <v>-94.36834414003039</v>
       </c>
       <c r="F47" s="11" t="n">
         <f aca="false">IF(A47="","",A39)</f>
@@ -5663,11 +5741,11 @@
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="27" t="n">
         <f aca="false">IF(D40=0,"",B40)</f>
-        <v>44620.0</v>
+        <v>44712.0</v>
       </c>
       <c r="B48" s="27" t="n">
         <f aca="false">IF(A48="","",A48)</f>
-        <v>44620.0</v>
+        <v>44712.0</v>
       </c>
       <c r="C48" s="11" t="str">
         <f aca="false">IF(A48="","",$H$3)</f>
@@ -5679,7 +5757,7 @@
       </c>
       <c r="E48" s="35" t="n">
         <f aca="false">IF(D48="Revenue",D40,"")</f>
-        <v>-271.4285714285717</v>
+        <v>2.2222222526124824E-5</v>
       </c>
       <c r="F48" s="11" t="n">
         <f aca="false">IF(A48="","",A40)</f>
@@ -5690,11 +5768,11 @@
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="27" t="n">
         <f aca="false">IF(D41=0,"",B41)</f>
-        <v>44620.0</v>
+        <v>44712.0</v>
       </c>
       <c r="B49" s="27" t="n">
         <f aca="false">IF(A49="","",A49)</f>
-        <v>44620.0</v>
+        <v>44712.0</v>
       </c>
       <c r="C49" s="11" t="str">
         <f aca="false">IF(A49="","",$H$3)</f>
@@ -5706,7 +5784,7 @@
       </c>
       <c r="E49" s="35" t="n">
         <f aca="false">IF(D49="Revenue",D41,"")</f>
-        <v>-41.643813111546116</v>
+        <v>-94.36834414003039</v>
       </c>
       <c r="F49" s="11" t="n">
         <f aca="false">IF(A49="","",A41)</f>
@@ -6984,11 +7062,11 @@
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <f aca="false">IF(RevRec_Calc!A47="","",RevRec_Calc!A47)</f>
-        <v>44620.0</v>
+        <v>44712.0</v>
       </c>
       <c r="B3" s="3" t="n">
         <f aca="false">IF(A3="","",RevRec_Calc!B47)</f>
-        <v>44620.0</v>
+        <v>44712.0</v>
       </c>
       <c r="C3" s="3" t="str">
         <f aca="false">IF(A3="","",RevRec_Calc!C47)</f>
@@ -7000,7 +7078,7 @@
       </c>
       <c r="E3" s="71" t="n">
         <f aca="false">IF(A3="","",RevRec_Calc!E47)</f>
-        <v>-130.88062622309135</v>
+        <v>-94.36834414003039</v>
       </c>
       <c r="F3" s="9" t="n">
         <f aca="false">IF(A3="","",RevRec_Calc!F47)</f>
@@ -7010,11 +7088,11 @@
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <f aca="false">IF(RevRec_Calc!A48="","",RevRec_Calc!A48)</f>
-        <v>44620.0</v>
+        <v>44712.0</v>
       </c>
       <c r="B4" s="3" t="n">
         <f aca="false">IF(A4="","",RevRec_Calc!B48)</f>
-        <v>44620.0</v>
+        <v>44712.0</v>
       </c>
       <c r="C4" s="3" t="str">
         <f aca="false">IF(A4="","",RevRec_Calc!C48)</f>
@@ -7026,7 +7104,7 @@
       </c>
       <c r="E4" s="71" t="n">
         <f aca="false">IF(A4="","",RevRec_Calc!E48)</f>
-        <v>-271.4285714285717</v>
+        <v>2.2222222526124824E-5</v>
       </c>
       <c r="F4" s="9" t="n">
         <f aca="false">IF(A4="","",RevRec_Calc!F48)</f>
@@ -7036,11 +7114,11 @@
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <f aca="false">IF(RevRec_Calc!A49="","",RevRec_Calc!A49)</f>
-        <v>44620.0</v>
+        <v>44712.0</v>
       </c>
       <c r="B5" s="3" t="n">
         <f aca="false">IF(A5="","",RevRec_Calc!B49)</f>
-        <v>44620.0</v>
+        <v>44712.0</v>
       </c>
       <c r="C5" s="3" t="str">
         <f aca="false">IF(A5="","",RevRec_Calc!C49)</f>
@@ -7052,7 +7130,7 @@
       </c>
       <c r="E5" s="71" t="n">
         <f aca="false">IF(A5="","",RevRec_Calc!E49)</f>
-        <v>-41.643813111546116</v>
+        <v>-94.36834414003039</v>
       </c>
       <c r="F5" s="9" t="n">
         <f aca="false">IF(A5="","",RevRec_Calc!F49)</f>

--- a/model/processed_outputSO1.xlsx
+++ b/model/processed_outputSO1.xlsx
@@ -1721,7 +1721,7 @@
       <c r="B2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n" s="81">
+      <c r="C2" t="n" s="77">
         <v>44712.0</v>
       </c>
       <c r="D2" t="s">
@@ -1730,13 +1730,13 @@
       <c r="E2" t="s">
         <v>104</v>
       </c>
-      <c r="F2" t="n" s="79">
+      <c r="F2" t="n" s="75">
         <v>1900.0</v>
       </c>
-      <c r="G2" t="n" s="82">
+      <c r="G2" t="n" s="78">
         <v>600.0</v>
       </c>
-      <c r="H2" t="n" s="80">
+      <c r="H2" t="n" s="76">
         <v>2500.0</v>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       <c r="B4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n" s="77">
+      <c r="C4" t="n" s="81">
         <v>44712.0</v>
       </c>
       <c r="D4" t="s">
@@ -1782,13 +1782,13 @@
       <c r="E4" t="s">
         <v>104</v>
       </c>
-      <c r="F4" t="n" s="75">
+      <c r="F4" t="n" s="79">
         <v>1900.0</v>
       </c>
-      <c r="G4" t="n" s="78">
+      <c r="G4" t="n" s="82">
         <v>600.0</v>
       </c>
-      <c r="H4" s="76" t="n">
+      <c r="H4" s="80" t="n">
         <v>2500.0</v>
       </c>
     </row>

--- a/model/processed_outputSO1.xlsx
+++ b/model/processed_outputSO1.xlsx
@@ -1721,7 +1721,7 @@
       <c r="B2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n" s="77">
+      <c r="C2" t="n" s="81">
         <v>44712.0</v>
       </c>
       <c r="D2" t="s">
@@ -1730,13 +1730,13 @@
       <c r="E2" t="s">
         <v>104</v>
       </c>
-      <c r="F2" t="n" s="75">
+      <c r="F2" t="n" s="79">
         <v>1900.0</v>
       </c>
-      <c r="G2" t="n" s="78">
+      <c r="G2" t="n" s="82">
         <v>600.0</v>
       </c>
-      <c r="H2" t="n" s="76">
+      <c r="H2" t="n" s="80">
         <v>2500.0</v>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       <c r="B4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n" s="81">
+      <c r="C4" t="n" s="77">
         <v>44712.0</v>
       </c>
       <c r="D4" t="s">
@@ -1782,13 +1782,13 @@
       <c r="E4" t="s">
         <v>104</v>
       </c>
-      <c r="F4" t="n" s="79">
+      <c r="F4" t="n" s="75">
         <v>1900.0</v>
       </c>
-      <c r="G4" t="n" s="82">
+      <c r="G4" t="n" s="78">
         <v>600.0</v>
       </c>
-      <c r="H4" s="80" t="n">
+      <c r="H4" s="76" t="n">
         <v>2500.0</v>
       </c>
     </row>
